--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8687F710-E578-4E53-91E6-435A33A5802C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6768977A-505F-454C-ABC9-8B9B6C1B6C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,9 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本科鱼种体型呈菱形或近于椭圆形，且非常侧扁。口小，开于吻端，略能伸缩。体被中形或小型之弱栉鳞或圆鳞，腹鳍下方有腋鳞。侧线1条，完全且呈弧形，但不甚明显。齿细长，在上下颌或刷毛状狭长带，腭骨无齿，前鳃盖缘平滑，幼鱼可能呈锯齿或有棘，但成长后即消失。幼鱼因头部被有骨质板称之Tholichthys。蝶鱼的体色也会随成长而略有变化。但不像棘蝶鱼变化那么大。有趣的是，大多数蝶鱼小时，它们的背鳍或身体后方常有一伪装用的眼斑，这个眼斑到成鱼后即消失。它的作用是用来蒙骗掠食者，使他们误将尾部当做头部而发动错误的攻击。此外，大部分蝶鱼在眼睛上还有一条黑色纵带穿过，亦有将头部伪装以使欺敌之作用。只有少数种类的体型从小到大会发生改变。</t>
-  </si>
-  <si>
     <t>brief</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,22 +113,257 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>鲤鱼，中文别名鲤拐子、鲤子、毛子，红鱼。鲤科（Cyprinidae）中粗强的褐色鱼，学名Cyprinus carpio。原产亚洲，后引进欧洲、北美以及其他地区，杂食性。鲤鱼鳞大，上腭两侧各有二须，单独或成小群地生活于平静且水草丛生的泥底的池塘、湖泊、河流中。在水域不大的地方有洄游的习性.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atest1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atest2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶鱼科为辐鳍鱼纲鲈形目的一个科。蝴蝶鱼俗称热带鱼，是近海暖水性小型珊瑚礁鱼类，体型最大的细纹蝴蝶鱼可达30多厘米。蝴蝶鱼身体侧扁，可以在珊瑚丛中敏捷地穿梭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>红褐鲤（学名：Cyprinus rubrofuscus）通称为鲤鱼，又名阿穆尔鲤、华南鲤、青鲤等，是鲤科鲤属的一种鱼类，广泛分布于东亚的淡水河流中</t>
-  </si>
-  <si>
-    <t>鲤鱼，中文别名鲤拐子、鲤子、毛子，红鱼。鲤科（Cyprinidae）中粗强的褐色鱼，学名Cyprinus carpio。原产亚洲，后引进欧洲、北美以及其他地区，杂食性。鲤鱼鳞大，上腭两侧各有二须，单独或成小群地生活于平静且水草丛生的泥底的池塘、湖泊、河流中。在水域不大的地方有洄游的习性.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atest1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atest2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶鱼科为辐鳍鱼纲鲈形目的一个科。蝴蝶鱼俗称热带鱼，是近海暖水性小型珊瑚礁鱼类，体型最大的细纹蝴蝶鱼可达30多厘米。蝴蝶鱼身体侧扁，可以在珊瑚丛中敏捷地穿梭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电鳗（学名：Electrophorus electricus）是一种以能短暂强力放电而闻名的淡水鱼类。体型粗圆而长，最大可长达250公分左右，栖息在南美洲的亚马逊河及奥里诺科河流域，生性昼伏夜出，以捕食小鱼为主。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_catfish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goliath_grouper</t>
+  </si>
+  <si>
+    <t>石斑鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电鳗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁（学名：Eretmochelys imbricata）是属于海龟科的一种海龟，是玳瑁属下唯一一种，又名瑇瑁、蝳蝐、瑇玳、文甲、鹰嘴海龟、十三鲮龟、十三鳞、十三棱龟、明玳瑁、千年龟，简称玳，分为太平洋玳瑁和大西洋玳瑁两个亚种。此物种分布非常广泛，其中太平洋玳瑁分布于印度洋-太平洋海域，大西洋玳瑁分布于大西洋中。该物种的模式产地在美洲和亚洲的海域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石斑鱼属于辐鳍鱼纲，身体肥厚，口部大，并不适宜长途迅速游泳。石斑鱼体型相当大，身长可达一米以上，体重超过一百公斤也不足为奇；不过石斑鱼的种类颇多，体型大小也各有差别。它们会把猎物吞噬，而不会用口把猎物逐片撕开；这是因为它们的颚没有很多牙齿，可是在咽头里的牙板可以碾碎食物。它们习惯等待鱼、章鱼、螃蟹、龙虾等猎物靠近，而不会在广阔的水域追逐猎物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green_turtle</t>
+  </si>
+  <si>
+    <t>lionfish</t>
+  </si>
+  <si>
+    <t>oreochromis</t>
+  </si>
+  <si>
+    <t>pike</t>
+  </si>
+  <si>
+    <t>purplefish</t>
+  </si>
+  <si>
+    <t>rainbow_cichild</t>
+  </si>
+  <si>
+    <t>rockfish</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>stingray 1</t>
+  </si>
+  <si>
+    <t>stingray</t>
+  </si>
+  <si>
+    <t>synodontis_eupterus 1</t>
+  </si>
+  <si>
+    <t>synodontis_eupterus</t>
+  </si>
+  <si>
+    <t>yellow_snapper</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼，为辐鳍鱼纲鲉形目杜父鱼亚目狮子鱼科的其中一种，分布于东北大西洋区，从挪威南部至新地岛、斯匹次卑尔根群岛、熊岛、冰岛等海域，栖息深度1-300米，为底栖性鱼类，体长可达15公分，属肉食性，以甲壳类、多毛类等为食，繁殖期在冬季。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longear_sunfish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">翻车鱼（学名：Mola mola），又称翻车鲀、曼波鱼、头鱼，为辐鳍鱼纲鲀形目翻车鲀科的一种。分布于全世界温带及热带海区，包括南海、东海等海域，属于大型大洋性鱼类。其常栖息于各热带和亚热带海洋以及也见于温带或寒带海洋。该物种的模式产地在地中海。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>losejaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻车鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moorish_idol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑软颌鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑柔骨鱼（学名：Malacosteus niger），又名黑软颌鱼，为辐鳍鱼纲巨口鱼目巨口鱼科的其中一种。分布于全球三大洋海域，为深海鱼类，栖息深度500-3886米，体长可达25.6公分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘丽鱼属（学名：Symphysodon），也称七彩神仙鱼属，是丽鱼科的一属，原产亚马逊河流域。为一类常见的热带淡水观赏鱼类。因成鱼的身体侧扁呈圆盘形，故名，体色会随着年龄的不同而变化。背鳍与臀鳍比较发达，尾鳍呈扇形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰鱼</t>
+  </si>
+  <si>
+    <t>镰鱼本鱼体短而高，近于菱形，极侧扁。故有纤毛状细栉麟。吻间前突出如管状，不可任意伸缩。上下颌齿细长，如刷毛状，唇厚。眶间区凸起生出一对锐角。胸前因鸟喙骨与匙骨特别发达，形成一个坚硬的胸甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nimbochromis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕条雨丽鱼，为辐鳍鱼纲鲈形目隆头鱼亚目慈鲷科的其中一种，分布于非洲马拉维湖南部流域，体长可达25公分，栖息在沙石底质、植被生长的水域，生活习性不明，可作为观赏鱼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨丽鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opthalmosaurus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大眼鱼龙属，希腊文意思为“眼睛蜥蜴”，因为它极大的眼睛而得名，是种生存在侏罗纪中到晚期的鱼龙类，约1亿6500万年前到1亿6000万年前。它拥有海豚形状的优美外形，身长6米，嘴部几乎没有牙齿，是为了捕食鱿鱼的适应结果。大眼鱼龙主要的化石发现于欧洲、北美洲与阿根廷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大眼鱼龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">罗非鱼通常生活于淡水中，可以存活于在湖、河、池塘的浅水中，也能生活于出海口、近岸沿海等不同盐分含量的咸水中。它有很强的适应能力，且对溶氧较少之水有极强之适应性，因此在许多地方成为入侵物种，并被列入世界百大外来入侵种名单。绝大部分罗非鱼是杂食性，常吃水中植物和碎物。此鱼在面积狭小之水域中亦能繁殖，在水稻田里亦能够生长。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗非鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘丽鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peacock_bass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀鲈鱼是一种大型丽鱼科鱼类，原产于南美洲热带地区的亚马逊河和奥里诺科河流域以及几内亚河流域，是昼行性和掠食性淡水鱼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀鲈鱼</t>
+  </si>
+  <si>
+    <t>白斑狗鱼（学名：Esox lucius），为辐鳍鱼纲狗鱼目狗鱼科的其中一种。分布于北美洲及欧亚大陆74°N-36°N的淡水流域，体长可达137公分，主要栖息在有植被生长的泠水湖泊、河川，属肉食性，以鱼类、甲壳类、鸟类、小型哺乳类等为食，可作为观赏鱼、游钓鱼及食用鱼，适合各种烹饪方式食用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白斑狗鱼</t>
+  </si>
+  <si>
+    <t>多棘始丽鱼</t>
+  </si>
+  <si>
+    <t>多棘始丽鱼，为辐鳍鱼纲鲈形目隆头鱼亚目慈鲷科的其中一种，分布于中美洲洪都拉斯至哥斯达黎加的淡水流域，体长可达17公分，栖息在泥底质的沼泽、湖泊，属杂食性，以藻类及有机碎屑等为食，生活习性不明，可做为观赏鱼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_rockfish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本鬼鲉（学名：Inimicus japonicus），为辐鳍鱼纲鲉形目毒鲉科鬼鲉属的其中一种鱼类，俗名老虎鱼或石头鱼。属夜行性鱼类，昼间潜藏于沙中，夜晚才出来觅食。从浅海至数百米深的沙泥底皆可发现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鲨鱼有高度流线、适合游泳的外型，全身覆满了盾鳞，鳞除了保护鲨鱼免于受伤或者被寄生虫寄生，还可以增进它们的流体动力，让它们游得更快速。鲨鱼体侧用于呼吸的鳃裂有5-7个。它们有数套可替换的牙齿。鲨鱼分布于全世界的海域，甚至是 2,000米（6,600英尺） 的深海。少数鲨鱼如低鳍真鲨或露齿鲨属同时生活于淡水与海水水域[4]。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤𫚉</t>
+  </si>
+  <si>
+    <t>赤𫚉（学名：Dasyatis akajei，又名赤土𫚉、红鲂、黄貂鱼）是软骨鱼纲燕𫚉目𫚉科𫚉属的一种鱼类。本鱼栖息于近海泥底质海域。以底栖软体动物和甲壳类等为食。尾部具毒棘，易伤人。卵胎生，最多可一次生10尾小𫚉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真翼歧须𬶏，为辐鳍鱼纲鲶形目倒立鲶科的其中一种，为热带淡水鱼，分布于非洲尼日河、乍得湖、尼罗河、伏塔河流域，体长可达30公分，栖息在底中层水域，以藻类及昆虫幼虫为食，生活习性不明，可做为观赏鱼。</t>
+  </si>
+  <si>
+    <t>真翼歧须𬶏，为辐鳍鱼纲鲶形目倒立鲶科的其中一种，为热带淡水鱼，分布于非洲尼日河、乍得湖、尼罗河、伏塔河流域，体长可达30公分，栖息在底中层水域，以藻类及昆虫幼虫为食，生活习性不明，可做为观赏鱼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真翼歧须𬶏</t>
+  </si>
+  <si>
+    <t>黄敏尾笛鲷</t>
+  </si>
+  <si>
+    <t>黄敏尾笛鲷（学名：Ocyurus Chrysurus，英文俗名：Yellowtail snapper），为辐鳍鱼纲鲈形目鲈亚目笛鲷科的其中一种。分布于西大西洋区，从美国马萨诸塞州至巴西东南部海域，以及整个墨西哥湾和加勒比海，栖息深度可达180米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶鱼本科鱼种体型呈菱形或近于椭圆形，且非常侧扁。口小，开于吻端，略能伸缩。体被中形或小型之弱栉鳞或圆鳞，腹鳍下方有腋鳞。侧线1条，完全且呈弧形，但不甚明显。蝶鱼的体色也会随成长而略有变化。大部分蝶鱼在眼睛上还有一条黑色纵带穿过，亦有将头部伪装以使欺敌之作用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,9 +415,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -466,15 +699,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
@@ -526,13 +759,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -556,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -564,13 +797,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -594,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
@@ -605,10 +838,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -632,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -643,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -670,10 +903,803 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E571047-B2AF-4017-9E81-65DD5DFAB893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150CA5DA-63B8-464A-BEBF-AAC340462BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,9 +144,6 @@
     <t>stingray 1</t>
   </si>
   <si>
-    <t>stingray</t>
-  </si>
-  <si>
     <t>synodontis_eupterus 1</t>
   </si>
   <si>
@@ -277,13 +274,6 @@
   </si>
   <si>
     <t>鲨鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤𫚉</t>
-  </si>
-  <si>
-    <t>赤𫚉（学名：Dasyatis akajei，又名赤土𫚉、红鲂、黄貂鱼）是软骨鱼纲燕𫚉目𫚉科𫚉属的一种鱼类。本鱼栖息于近海泥底质海域。以底栖软体动物和甲壳类等为食。尾部具毒棘，易伤人。卵胎生，最多可一次生10尾小𫚉。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,6 +416,22 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stingray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞象章鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤魟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤魟（学名：Dasyatis akajei，又名赤土魟、红鲂、黄貂鱼）是软骨鱼纲燕魟目魟科魟属的一种鱼类。本鱼栖息于近海泥底质海域。以底栖软体动物和甲壳类等为食。尾部具毒棘，易伤人。卵胎生，最多可一次生10尾小魟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,6 +784,7 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -818,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -832,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>270</v>
@@ -853,10 +860,10 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -873,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -894,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
         <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>101</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -923,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -935,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -1037,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1058,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -1078,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1099,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
         <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1110,7 +1117,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1119,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1140,10 +1147,10 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -1151,7 +1158,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1181,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
         <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>43</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -1192,7 +1199,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1222,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1233,7 +1240,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1263,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -1274,7 +1281,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1283,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1304,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13">
         <v>12</v>
@@ -1345,10 +1352,10 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1356,7 +1363,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1386,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15">
         <v>14</v>
@@ -1418,7 +1425,7 @@
         <v>45</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1427,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16">
         <v>15</v>
@@ -1468,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
         <v>61</v>
-      </c>
-      <c r="L17" t="s">
-        <v>62</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -1479,7 +1486,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1509,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
         <v>64</v>
-      </c>
-      <c r="L18" t="s">
-        <v>65</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -1550,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" t="s">
         <v>64</v>
-      </c>
-      <c r="L19" t="s">
-        <v>65</v>
       </c>
       <c r="M19">
         <v>18</v>
@@ -1570,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1591,10 +1598,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M20">
         <v>19</v>
@@ -1611,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1632,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="M21">
         <v>20</v>
@@ -1643,7 +1650,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1652,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1673,10 +1680,10 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="M22">
         <v>21</v>
@@ -1684,7 +1691,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1714,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M23">
         <v>22</v>
@@ -1725,7 +1732,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1755,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -1766,7 +1773,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1796,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -1807,7 +1814,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1837,10 +1844,10 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M26">
         <v>25</v>
@@ -1848,7 +1855,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1857,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1878,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M27">
         <v>26</v>
@@ -1889,7 +1896,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1898,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1919,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M28">
         <v>27</v>
@@ -1930,7 +1937,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1960,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M29">
         <v>28</v>
@@ -1982,7 +1989,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2013,18 +2020,18 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2042,18 +2049,18 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2071,18 +2078,18 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2100,18 +2107,18 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2129,13 +2136,13 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150CA5DA-63B8-464A-BEBF-AAC340462BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31C90BD-F5A4-47B2-9DB2-3F09FF6F2578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datalist" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电鳗（学名：Electrophorus electricus）是一种以能短暂强力放电而闻名的淡水鱼类。体型粗圆而长，最大可长达250公分左右，栖息在南美洲的亚马逊河及奥里诺科河流域，生性昼伏夜出，以捕食小鱼为主。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>electric_catfish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
   </si>
   <si>
     <t>石斑鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电鳗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,6 +425,13 @@
   <si>
     <t>赤魟（学名：Dasyatis akajei，又名赤土魟、红鲂、黄貂鱼）是软骨鱼纲燕魟目魟科魟属的一种鱼类。本鱼栖息于近海泥底质海域。以底栖软体动物和甲壳类等为食。尾部具毒棘，易伤人。卵胎生，最多可一次生10尾小魟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电鲶，为辐鳍鱼纲鲶形目电鲶科的其中一种，分布于非洲尼罗河、查德湖、尼日河、塞内加尔河、图尔卡纳湖等流域，体长可达122公分，生活在岩石、树根沉积的底中层水域，在夜间活动，属肉食性，具有发电器官，以电击击昏猎物，可做为食用鱼、游钓鱼及观赏鱼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电鲶</t>
   </si>
 </sst>
 </file>
@@ -768,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -825,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -860,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -901,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -942,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -953,7 +952,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -983,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -994,7 +993,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1024,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -1035,7 +1034,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1065,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1076,7 +1075,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1106,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1117,7 +1116,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1147,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -1158,7 +1157,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1188,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -1199,7 +1198,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1229,10 +1228,10 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1240,7 +1239,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1270,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -1281,7 +1280,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1311,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13">
         <v>12</v>
@@ -1322,7 +1321,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1352,10 +1351,10 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1363,7 +1362,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1393,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15">
         <v>14</v>
@@ -1404,7 +1403,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1434,10 +1433,10 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M16">
         <v>15</v>
@@ -1445,7 +1444,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1475,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -1486,7 +1485,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1516,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -1527,7 +1526,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1557,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M19">
         <v>18</v>
@@ -1568,7 +1567,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1598,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M20">
         <v>19</v>
@@ -1609,7 +1608,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1639,10 +1638,10 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M21">
         <v>20</v>
@@ -1650,7 +1649,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1680,10 +1679,10 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M22">
         <v>21</v>
@@ -1691,7 +1690,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1721,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M23">
         <v>22</v>
@@ -1732,7 +1731,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1762,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -1773,7 +1772,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1803,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -1814,7 +1813,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1844,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M26">
         <v>25</v>
@@ -1855,7 +1854,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1885,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M27">
         <v>26</v>
@@ -1896,7 +1895,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1926,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" t="s">
         <v>75</v>
-      </c>
-      <c r="L28" t="s">
-        <v>77</v>
       </c>
       <c r="M28">
         <v>27</v>
@@ -1937,7 +1936,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1967,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M29">
         <v>28</v>
@@ -1988,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623F231B-CE51-4C10-A8CC-6CC59C7F803A}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2020,39 +2019,39 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1">
         <v>29</v>
@@ -2060,7 +2059,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2078,10 +2077,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="1">
         <v>30</v>
@@ -2089,7 +2088,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2107,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <v>31</v>
@@ -2118,7 +2117,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2136,10 +2135,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>32</v>

--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31C90BD-F5A4-47B2-9DB2-3F09FF6F2578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1133F1F5-9ADD-4D00-9C5C-39F44F2D8275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datalist" sheetId="1" r:id="rId1"/>
@@ -267,16 +267,6 @@
   <si>
     <t>鲨鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真翼歧须𬶏，为辐鳍鱼纲鲶形目倒立鲶科的其中一种，为热带淡水鱼，分布于非洲尼日河、乍得湖、尼罗河、伏塔河流域，体长可达30公分，栖息在底中层水域，以藻类及昆虫幼虫为食，生活习性不明，可做为观赏鱼。</t>
-  </si>
-  <si>
-    <t>真翼歧须𬶏，为辐鳍鱼纲鲶形目倒立鲶科的其中一种，为热带淡水鱼，分布于非洲尼日河、乍得湖、尼罗河、伏塔河流域，体长可达30公分，栖息在底中层水域，以藻类及昆虫幼虫为食，生活习性不明，可做为观赏鱼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真翼歧须𬶏</t>
   </si>
   <si>
     <t>黄敏尾笛鲷</t>
@@ -432,6 +422,44 @@
   </si>
   <si>
     <t>电鲶</t>
+  </si>
+  <si>
+    <t>真翼歧须鮠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>真翼歧须鮠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，为辐鳍鱼纲鲶形目倒立鲶科的其中一种，为热带淡水鱼，分布于非洲尼日河、乍得湖、尼罗河、伏塔河流域，体长可达30公分，栖息在底中层水域，以藻类及昆虫幼虫为食，生活习性不明，可做为观赏鱼。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>真翼歧须鮠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，为辐鳍鱼纲鲶形目倒立鲶科的其中一种，为热带淡水鱼，分布于非洲尼日河、乍得湖、尼罗河、伏塔河流域，体长可达30公分，栖息在底中层水域，以藻类及昆虫幼虫为食，生活习性不明，可做为观赏鱼。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -767,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -859,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -900,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
         <v>93</v>
-      </c>
-      <c r="L3" t="s">
-        <v>96</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -982,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -1146,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -1638,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M21">
         <v>20</v>
@@ -1649,7 +1677,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1679,10 +1707,10 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M22">
         <v>21</v>
@@ -1720,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="M23">
         <v>22</v>
@@ -1761,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -1802,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -1813,7 +1841,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1843,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M26">
         <v>25</v>
@@ -1854,7 +1882,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1884,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M27">
         <v>26</v>
@@ -1895,7 +1923,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1925,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M28">
         <v>27</v>
@@ -1936,7 +1964,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1966,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M29">
         <v>28</v>
@@ -2019,18 +2047,18 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2048,10 +2076,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I2" s="1">
         <v>29</v>
@@ -2059,7 +2087,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2077,10 +2105,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1">
         <v>30</v>
@@ -2088,7 +2116,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2106,10 +2134,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>31</v>
@@ -2117,7 +2145,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2135,10 +2163,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>32</v>

--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1133F1F5-9ADD-4D00-9C5C-39F44F2D8275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF819135-D7B4-47F6-9E47-ACD85C51973A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,15 +46,6 @@
     <t>depth</t>
   </si>
   <si>
-    <t>moveRate</t>
-  </si>
-  <si>
-    <t>shakeFrequency</t>
-  </si>
-  <si>
-    <t>shakeAmplitude</t>
-  </si>
-  <si>
     <t>rotateRange</t>
   </si>
   <si>
@@ -104,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玳瑁（学名：Eretmochelys imbricata）是属于海龟科的一种海龟，是玳瑁属下唯一一种，又名瑇瑁、蝳蝐、瑇玳、文甲、鹰嘴海龟、十三鲮龟、十三鳞、十三棱龟、明玳瑁、千年龟，简称玳，分为太平洋玳瑁和大西洋玳瑁两个亚种。此物种分布非常广泛，其中太平洋玳瑁分布于印度洋-太平洋海域，大西洋玳瑁分布于大西洋中。该物种的模式产地在美洲和亚洲的海域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石斑鱼属于辐鳍鱼纲，身体肥厚，口部大，并不适宜长途迅速游泳。石斑鱼体型相当大，身长可达一米以上，体重超过一百公斤也不足为奇；不过石斑鱼的种类颇多，体型大小也各有差别。它们会把猎物吞噬，而不会用口把猎物逐片撕开；这是因为它们的颚没有很多牙齿，可是在咽头里的牙板可以碾碎食物。它们习惯等待鱼、章鱼、螃蟹、龙虾等猎物靠近，而不会在广阔的水域追逐猎物。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,15 +191,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大眼鱼龙属，希腊文意思为“眼睛蜥蜴”，因为它极大的眼睛而得名，是种生存在侏罗纪中到晚期的鱼龙类，约1亿6500万年前到1亿6000万年前。它拥有海豚形状的优美外形，身长6米，嘴部几乎没有牙齿，是为了捕食鱿鱼的适应结果。大眼鱼龙主要的化石发现于欧洲、北美洲与阿根廷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大眼鱼龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">罗非鱼通常生活于淡水中，可以存活于在湖、河、池塘的浅水中，也能生活于出海口、近岸沿海等不同盐分含量的咸水中。它有很强的适应能力，且对溶氧较少之水有极强之适应性，因此在许多地方成为入侵物种，并被列入世界百大外来入侵种名单。绝大部分罗非鱼是杂食性，常吃水中植物和碎物。此鱼在面积狭小之水域中亦能繁殖，在水稻田里亦能够生长。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,14 +361,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蝴蝶鱼科为辐鳍鱼纲鲈形目的一个科。蝴蝶鱼俗称热带鱼，是近海暖水性小型珊瑚礁鱼类，体型最大的细纹蝴蝶鱼可达30多厘米。蝴蝶鱼身体侧扁，可以在珊瑚丛中敏捷地穿梭。本科鱼种体型呈菱形或近于椭圆形，且非常侧扁。口小，开于吻端，略能伸缩。大部分蝶鱼在眼睛上还有一条黑色纵带穿过，亦有将头部伪装以使欺敌之作用。</t>
-  </si>
-  <si>
     <t>蝴蝶鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼，中文别名鲤拐子、鲤子、毛子，红鱼。鲤科（Cyprinidae）中粗强的褐色鱼，学名Cyprinus carpio。原产亚洲，后引进欧洲、北美以及其他地区，杂食性。鲤鱼鳞大，上腭两侧各有二须，单独或成小群地生活于平静且水草丛生的泥底的池塘、湖泊、河流中。在水域不大的地方有洄游的习性.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,6 +431,43 @@
       </rPr>
       <t>，为辐鳍鱼纲鲶形目倒立鲶科的其中一种，为热带淡水鱼，分布于非洲尼日河、乍得湖、尼罗河、伏塔河流域，体长可达30公分，栖息在底中层水域，以藻类及昆虫幼虫为食，生活习性不明，可做为观赏鱼。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedDiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alignWeight</t>
+  </si>
+  <si>
+    <t>cohesionWeight</t>
+  </si>
+  <si>
+    <t>seperateWeight</t>
+  </si>
+  <si>
+    <t>蝴蝶鱼科为辐鳍鱼纲鲈形目的一个科。蝴蝶鱼俗称热带鱼，是近海暖水性小型珊瑚礁鱼类，体型最大的细纹蝴蝶鱼可达30多厘米。蝴蝶鱼身体侧扁，可以在珊瑚丛中敏捷地穿梭。大部分蝶鱼在眼睛上还有一条黑色纵带穿过，亦有将头部伪装以使欺敌之作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼，中文别名鲤拐子、鲤子、毛子，红鱼。鲤科中粗强的褐色鱼，学名Cyprinus carpio。原产亚洲，后引进欧洲、北美以及其他地区，杂食性。鲤鱼鳞大，上腭两侧各有二须，单独或成小群地生活于平静且水草丛生的泥底的池塘、湖泊、河流中。在水域不大的地方有洄游的习性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁（学名：Eretmochelys imbricata）是属于海龟科的一种海龟，是玳瑁属下唯一一种，简称玳，分为太平洋玳瑁和大西洋玳瑁两个亚种。此物种分布非常广泛，其中太平洋玳瑁分布于印度洋-太平洋海域，大西洋玳瑁分布于大西洋中。该物种的模式产地在美洲和亚洲的海域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大眼鱼龙属，希腊文意思为“眼睛蜥蜴”，因为它极大的眼睛而得名，是种生存在侏罗纪中到晚期的鱼龙类，约1亿6500万年前到1亿6000万年前。它拥有海豚形状的优美外形，身长6米，嘴部几乎没有牙齿，是为了捕食鱿鱼的适应结果。大眼鱼龙主要的化石发现于欧洲、北美洲与阿根廷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗非鱼通常生活于淡水中，可以存活于在湖、河、池塘的浅水中，也能生活于出海口、近岸沿海等不同盐分含量的咸水中。它有很强的适应能力，且对溶氧较少之水有极强之适应性，因此在许多地方成为入侵物种，并被列入世界百大外来入侵种名单。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,28 +802,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,39 +836,45 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -869,36 +886,42 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -910,36 +933,42 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -951,36 +980,42 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
         <v>60</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -992,36 +1027,42 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1033,36 +1074,42 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1074,36 +1121,42 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1115,77 +1168,89 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1197,36 +1262,42 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1238,36 +1309,42 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1279,36 +1356,42 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1320,36 +1403,42 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1361,36 +1450,42 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
-      <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1402,36 +1497,42 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1443,36 +1544,42 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="K16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16">
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1484,36 +1591,42 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1522,39 +1635,45 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1563,39 +1682,45 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1607,36 +1732,42 @@
         <v>12</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1648,36 +1779,42 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
-      <c r="K21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1689,36 +1826,42 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
-      <c r="K22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1727,39 +1870,45 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" t="s">
-        <v>103</v>
-      </c>
-      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1768,39 +1917,45 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1812,36 +1967,42 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1853,36 +2014,42 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
-      <c r="K26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1894,36 +2061,42 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1935,36 +2108,42 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1976,30 +2155,36 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29">
         <v>28</v>
       </c>
     </row>
@@ -2035,30 +2220,30 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2076,10 +2261,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1">
         <v>29</v>
@@ -2087,7 +2272,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2105,10 +2290,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1">
         <v>30</v>
@@ -2116,7 +2301,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2134,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>31</v>
@@ -2145,7 +2330,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2163,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>32</v>

--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF819135-D7B4-47F6-9E47-ACD85C51973A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7EF2F0-B768-43BE-8703-D88A6570C72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,23 +397,6 @@
   </si>
   <si>
     <t>真翼歧须鮠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>真翼歧须鮠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，为辐鳍鱼纲鲶形目倒立鲶科的其中一种，为热带淡水鱼，分布于非洲尼日河、乍得湖、尼罗河、伏塔河流域，体长可达30公分，栖息在底中层水域，以藻类及昆虫幼虫为食，生活习性不明，可做为观赏鱼。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -805,7 +788,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -836,19 +819,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -913,7 +896,7 @@
         <v>85</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -960,7 +943,7 @@
         <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -1148,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -1430,7 +1413,7 @@
         <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O13">
         <v>12</v>
@@ -1477,7 +1460,7 @@
         <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O14">
         <v>13</v>
@@ -1947,7 +1930,7 @@
         <v>94</v>
       </c>
       <c r="N24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O24">
         <v>23</v>

--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7EF2F0-B768-43BE-8703-D88A6570C72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9D381-33A9-4A6C-AA76-6C55338BA932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1698,7 +1698,7 @@
         <v>56</v>
       </c>
       <c r="O19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
         <v>57</v>
       </c>
       <c r="O20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>91</v>
       </c>
       <c r="O21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1839,7 +1839,7 @@
         <v>91</v>
       </c>
       <c r="O22">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1886,7 +1886,7 @@
         <v>95</v>
       </c>
       <c r="O23">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1933,7 +1933,7 @@
         <v>95</v>
       </c>
       <c r="O24">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1980,7 +1980,7 @@
         <v>60</v>
       </c>
       <c r="O25">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>81</v>
       </c>
       <c r="O26">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2074,7 +2074,7 @@
         <v>66</v>
       </c>
       <c r="O27">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2121,7 +2121,7 @@
         <v>66</v>
       </c>
       <c r="O28">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2168,7 +2168,7 @@
         <v>70</v>
       </c>
       <c r="O29">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9D381-33A9-4A6C-AA76-6C55338BA932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB0734F-2C0B-4A78-85F5-C7955659551D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石斑鱼属于辐鳍鱼纲，身体肥厚，口部大，并不适宜长途迅速游泳。石斑鱼体型相当大，身长可达一米以上，体重超过一百公斤也不足为奇；不过石斑鱼的种类颇多，体型大小也各有差别。它们会把猎物吞噬，而不会用口把猎物逐片撕开；这是因为它们的颚没有很多牙齿，可是在咽头里的牙板可以碾碎食物。它们习惯等待鱼、章鱼、螃蟹、龙虾等猎物靠近，而不会在广阔的水域追逐猎物。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>green_turtle</t>
   </si>
   <si>
@@ -214,10 +210,6 @@
     <t>孔雀鲈鱼</t>
   </si>
   <si>
-    <t>白斑狗鱼（学名：Esox lucius），为辐鳍鱼纲狗鱼目狗鱼科的其中一种。分布于北美洲及欧亚大陆74°N-36°N的淡水流域，体长可达137公分，主要栖息在有植被生长的泠水湖泊、河川，属肉食性，以鱼类、甲壳类、鸟类、小型哺乳类等为食，可作为观赏鱼、游钓鱼及食用鱼，适合各种烹饪方式食用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白斑狗鱼</t>
   </si>
   <si>
@@ -240,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">鲨鱼有高度流线、适合游泳的外型，全身覆满了盾鳞，鳞除了保护鲨鱼免于受伤或者被寄生虫寄生，还可以增进它们的流体动力，让它们游得更快速。鲨鱼体侧用于呼吸的鳃裂有5-7个。它们有数套可替换的牙齿。鲨鱼分布于全世界的海域，甚至是 2,000米（6,600英尺） 的深海。少数鲨鱼如低鳍真鲨或露齿鲨属同时生活于淡水与海水水域[4]。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鲨鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +272,6 @@
   </si>
   <si>
     <t>巨乌贼</t>
-  </si>
-  <si>
-    <t>巨乌贼，又名大王乌贼（属名：Architeuthis，英文名：Giant squid），是一种生活在太平洋和大西洋深海的乌贼，其天敌是抹香鲸，是世界上最长的无脊椎动物。根据最新的估计，雌性乌贼的全长大约14米，其身体长度大约为4米，触手长度为10米甚至更长。其最大长度不超过20米。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长耳太阳鱼</t>
@@ -434,23 +418,39 @@
     <t>seperateWeight</t>
   </si>
   <si>
-    <t>蝴蝶鱼科为辐鳍鱼纲鲈形目的一个科。蝴蝶鱼俗称热带鱼，是近海暖水性小型珊瑚礁鱼类，体型最大的细纹蝴蝶鱼可达30多厘米。蝴蝶鱼身体侧扁，可以在珊瑚丛中敏捷地穿梭。大部分蝶鱼在眼睛上还有一条黑色纵带穿过，亦有将头部伪装以使欺敌之作用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼，中文别名鲤拐子、鲤子、毛子，红鱼。鲤科中粗强的褐色鱼，学名Cyprinus carpio。原产亚洲，后引进欧洲、北美以及其他地区，杂食性。鲤鱼鳞大，上腭两侧各有二须，单独或成小群地生活于平静且水草丛生的泥底的池塘、湖泊、河流中。在水域不大的地方有洄游的习性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玳瑁（学名：Eretmochelys imbricata）是属于海龟科的一种海龟，是玳瑁属下唯一一种，简称玳，分为太平洋玳瑁和大西洋玳瑁两个亚种。此物种分布非常广泛，其中太平洋玳瑁分布于印度洋-太平洋海域，大西洋玳瑁分布于大西洋中。该物种的模式产地在美洲和亚洲的海域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大眼鱼龙属，希腊文意思为“眼睛蜥蜴”，因为它极大的眼睛而得名，是种生存在侏罗纪中到晚期的鱼龙类，约1亿6500万年前到1亿6000万年前。它拥有海豚形状的优美外形，身长6米，嘴部几乎没有牙齿，是为了捕食鱿鱼的适应结果。大眼鱼龙主要的化石发现于欧洲、北美洲与阿根廷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>罗非鱼通常生活于淡水中，可以存活于在湖、河、池塘的浅水中，也能生活于出海口、近岸沿海等不同盐分含量的咸水中。它有很强的适应能力，且对溶氧较少之水有极强之适应性，因此在许多地方成为入侵物种，并被列入世界百大外来入侵种名单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白斑狗鱼，为辐鳍鱼纲狗鱼目狗鱼科的其中一种。分布于北美洲及欧亚大陆74°N-36°N的淡水流域，体长可达137公分，主要栖息在有植被生长的泠水湖泊、河川，属肉食性，以鱼类、甲壳类、鸟类、小型哺乳类等为食，可作为观赏鱼、游钓鱼及食用鱼，适合各种烹饪方式食用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶鱼俗称热带鱼，是近海暖水性小型珊瑚礁鱼类，体型最大的细纹蝴蝶鱼可达30多厘米。蝴蝶鱼身体侧扁，可以在珊瑚丛中敏捷地穿梭。大部分蝶鱼在眼睛上还有一条黑色纵带穿过，亦有将头部伪装以使欺敌之作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼，鲤科中粗强的褐色鱼，原产亚洲，后引进欧洲、北美以及其他地区，杂食性。鲤鱼鳞大，上腭两侧各有二须，单独或成小群地生活于平静且水草丛生的泥底的池塘、湖泊、河流中。在水域不大的地方有洄游的习性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨乌贼，又名大王乌贼，是一种生活在太平洋和大西洋深海的乌贼，其天敌是抹香鲸，是世界上最长的无脊椎动物。根据最新的估计，雌性乌贼的全长大约14米，其身体长度大约为4米，触手长度为10米甚至更长。其最大长度不超过20米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁是属于海龟科的一种海龟，是玳瑁属下唯一一种，简称玳，分为太平洋玳瑁和大西洋玳瑁两个亚种。此物种分布非常广泛，其中太平洋玳瑁分布于印度洋-太平洋海域，大西洋玳瑁分布于大西洋中。该物种的模式产地在美洲和亚洲的海域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大眼鱼龙属，希腊文意思为“眼睛蜥蜴”，因为它极大的眼睛而得名，是种生存在侏罗纪中到晚期的鱼龙类。它拥有海豚形状的优美外形，身长6米，嘴部几乎没有牙齿，是为了捕食鱿鱼的适应结果。大眼鱼龙主要的化石发现于欧洲、北美洲与阿根廷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼有高度流线、适合游泳的外型，全身覆满了盾鳞，鳞除了保护鲨鱼免于受伤或者被寄生虫寄生，还可以增进它们的流体动力，让它们游得更快速。鲨鱼体侧用于呼吸的鳃裂有5-7个。它们有数套可替换的牙齿。鲨鱼分布于全世界的海域，甚至是6,600英尺的深海。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石斑鱼属于辐鳍鱼纲，身体肥厚，口部大，并不适宜长途迅速游泳。石斑鱼的种类颇多，体型大小也各有差别。它们会把猎物吞噬，而不会用口把猎物逐片撕开；这是因为它们的颚没有很多牙齿，可是在咽头里的牙板可以碾碎食物。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +788,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,19 +819,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -893,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -940,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -987,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -1084,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1128,10 +1128,10 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
         <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>30</v>
       </c>
       <c r="O8">
         <v>7</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O9">
         <v>8</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1269,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
         <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>36</v>
       </c>
       <c r="O10">
         <v>9</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
         <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>39</v>
       </c>
       <c r="O11">
         <v>10</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1363,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12">
         <v>11</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1410,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O13">
         <v>12</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O14">
         <v>13</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15">
         <v>14</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="O16">
         <v>15</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17">
         <v>16</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1645,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18">
         <v>17</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19">
         <v>17</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1739,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="O20">
         <v>18</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1786,10 +1786,10 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O21">
         <v>19</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O22">
         <v>19</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1880,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O23">
         <v>20</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1927,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O24">
         <v>20</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O25">
         <v>21</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O26">
         <v>22</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O27">
         <v>23</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2115,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O28">
         <v>23</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2162,10 +2162,10 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N29" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="O29">
         <v>24</v>
@@ -2215,18 +2215,18 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I2" s="1">
         <v>29</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2273,10 +2273,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I3" s="1">
         <v>30</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2302,10 +2302,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>31</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2331,10 +2331,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>32</v>

--- a/jsonData.xlsx
+++ b/jsonData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\[unityprojects\Fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB0734F-2C0B-4A78-85F5-C7955659551D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ACF4AE-2D79-44BC-9A92-849D4AD20ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电鲶，为辐鳍鱼纲鲶形目电鲶科的其中一种，分布于非洲尼罗河、查德湖、尼日河、塞内加尔河、图尔卡纳湖等流域，体长可达122公分，生活在岩石、树根沉积的底中层水域，在夜间活动，属肉食性，具有发电器官，以电击击昏猎物，可做为食用鱼、游钓鱼及观赏鱼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电鲶</t>
   </si>
   <si>
@@ -422,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白斑狗鱼，为辐鳍鱼纲狗鱼目狗鱼科的其中一种。分布于北美洲及欧亚大陆74°N-36°N的淡水流域，体长可达137公分，主要栖息在有植被生长的泠水湖泊、河川，属肉食性，以鱼类、甲壳类、鸟类、小型哺乳类等为食，可作为观赏鱼、游钓鱼及食用鱼，适合各种烹饪方式食用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蝴蝶鱼俗称热带鱼，是近海暖水性小型珊瑚礁鱼类，体型最大的细纹蝴蝶鱼可达30多厘米。蝴蝶鱼身体侧扁，可以在珊瑚丛中敏捷地穿梭。大部分蝶鱼在眼睛上还有一条黑色纵带穿过，亦有将头部伪装以使欺敌之作用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,6 +443,14 @@
   </si>
   <si>
     <t>石斑鱼属于辐鳍鱼纲，身体肥厚，口部大，并不适宜长途迅速游泳。石斑鱼的种类颇多，体型大小也各有差别。它们会把猎物吞噬，而不会用口把猎物逐片撕开；这是因为它们的颚没有很多牙齿，可是在咽头里的牙板可以碾碎食物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电鲶，为辐鳍鱼纲鲶形目电鲶科的其中一种，分布于非洲尼罗河、查德湖、尼日河、塞内加尔河、图尔卡纳湖等流域，体长可达122公分，生活在岩石、树根沉积的底中层水域，在夜间活动，属肉食性，具有发电器官，以电击击昏猎物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白斑狗鱼，为辐鳍鱼纲狗鱼目狗鱼科的其中一种。分布于北美洲及欧亚大陆74°N-36°N的淡水流域，体长可达137公分，主要栖息在有植被生长的泠水湖泊、河川，属肉食性，以鱼类、甲壳类、鸟类、小型哺乳类等为食，可作为观赏鱼、游钓鱼及食用鱼。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +788,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,19 +819,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>95</v>
-      </c>
-      <c r="H1" t="s">
-        <v>96</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -896,7 +896,7 @@
         <v>81</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -937,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
         <v>80</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
         <v>45</v>
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -1084,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -1131,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -1292,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O13">
         <v>12</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1454,13 +1454,13 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O14">
         <v>13</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -1548,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="s">
         <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O16">
         <v>15</v>
@@ -1742,7 +1742,7 @@
         <v>55</v>
       </c>
       <c r="N20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O20">
         <v>18</v>
@@ -1880,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" t="s">
         <v>90</v>
-      </c>
-      <c r="N23" t="s">
-        <v>91</v>
       </c>
       <c r="O23">
         <v>20</v>
@@ -1927,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" t="s">
         <v>90</v>
-      </c>
-      <c r="N24" t="s">
-        <v>91</v>
       </c>
       <c r="O24">
         <v>20</v>
@@ -2165,7 +2165,7 @@
         <v>66</v>
       </c>
       <c r="N29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O29">
         <v>24</v>
